--- a/db/excel/sqlite-inovation-manager-ver-4.0.xlsx
+++ b/db/excel/sqlite-inovation-manager-ver-4.0.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT_SERVICE\m-inovation\db\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF27AE2D-AD82-429B-AADB-FD80525065D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -19,18 +13,19 @@
     <sheet name="admin_functions" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="admin_group" sheetId="14" state="hidden" r:id="rId5"/>
     <sheet name="admin_roles" sheetId="15" state="hidden" r:id="rId6"/>
-    <sheet name="organizations" sheetId="11" r:id="rId7"/>
+    <sheet name="organizations" sheetId="11" state="hidden" r:id="rId7"/>
     <sheet name="job_roles" sheetId="16" state="hidden" r:id="rId8"/>
     <sheet name="staffs" sheetId="17" state="hidden" r:id="rId9"/>
-    <sheet name="user_roles" sheetId="18" r:id="rId10"/>
-    <sheet name="users" sheetId="10" r:id="rId11"/>
+    <sheet name="user_roles" sheetId="18" state="hidden" r:id="rId10"/>
+    <sheet name="users" sheetId="10" state="hidden" r:id="rId11"/>
     <sheet name="ideas" sheetId="8" r:id="rId12"/>
-    <sheet name="ideas_categories" sheetId="19" r:id="rId13"/>
+    <sheet name="ideas_categories" sheetId="19" state="hidden" r:id="rId13"/>
     <sheet name="ideas_status_type" sheetId="21" r:id="rId14"/>
     <sheet name="ideas_statuses" sheetId="20" r:id="rId15"/>
+    <sheet name="ideas_questions" sheetId="22" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$211</definedName>
   </definedNames>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="536">
   <si>
     <t>table_name</t>
   </si>
@@ -1557,13 +1552,109 @@
   </si>
   <si>
     <t>burlywood</t>
+  </si>
+  <si>
+    <t>Trạng thái hiệu lực, &gt;0, &gt;=2 cho hiển thị, &lt;2 ẩn ý tưởng</t>
+  </si>
+  <si>
+    <t>Hủy bỏ</t>
+  </si>
+  <si>
+    <t>Đang triển khai</t>
+  </si>
+  <si>
+    <t>Mới khởi tạo</t>
+  </si>
+  <si>
+    <t>ideas_marks</t>
+  </si>
+  <si>
+    <t>ideas_questions</t>
+  </si>
+  <si>
+    <t>Mã câu hỏi của ý tưởng để đánh giá</t>
+  </si>
+  <si>
+    <t>Câu hỏi gì để cho điểm</t>
+  </si>
+  <si>
+    <t>Mô tả cách thức nhận xét tiêu chuẩn</t>
+  </si>
+  <si>
+    <t>user cập nhập câu hỏi này</t>
+  </si>
+  <si>
+    <t>question_id</t>
+  </si>
+  <si>
+    <t>min_point</t>
+  </si>
+  <si>
+    <t>max_point</t>
+  </si>
+  <si>
+    <t>Điểm thấp nhất</t>
+  </si>
+  <si>
+    <t>Điểm cao nhất</t>
+  </si>
+  <si>
+    <t>NUMERIC</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>trọng số đánh giá này</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>ý tưởng nào</t>
+  </si>
+  <si>
+    <t>câu hỏi nào</t>
+  </si>
+  <si>
+    <t>user nào</t>
+  </si>
+  <si>
+    <t>cho mấy điểm</t>
+  </si>
+  <si>
+    <t>trọng số là bao nhiêu</t>
+  </si>
+  <si>
+    <t>,   UNIQUE(idea_id, question_id, user_id), FOREIGN KEY (idea_id) REFERENCES ideas(id), , FOREIGN KEY (question_id) REFERENCES ideas_questions(id) , FOREIGN KEY (user_id) REFERENCES users(id)</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>Tính hiệu quả</t>
+  </si>
+  <si>
+    <t>Hiệu quả không?</t>
+  </si>
+  <si>
+    <t>Thực tế</t>
+  </si>
+  <si>
+    <t>Rõ ràng</t>
+  </si>
+  <si>
+    <t>total_point</t>
+  </si>
+  <si>
+    <t>Tổng điểm đánh giá trung bình</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1755,7 +1846,7 @@
       <name val="Monaco"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1936,6 +2027,12 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1987,7 +2084,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="168">
+  <cellStyleXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2156,8 +2253,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2493,8 +2604,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="168">
+  <cellStyles count="182">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2579,6 +2704,13 @@
     <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2662,6 +2794,13 @@
     <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3066,23 +3205,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK241"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34" style="90" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" style="105" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="131" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="105" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="131" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" s="90" customFormat="1">
@@ -4166,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" ht="37.5">
+    <row r="4" spans="1:1025" ht="36">
       <c r="A4" s="78" t="s">
         <v>36</v>
       </c>
@@ -4185,7 +4324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="56.25">
+    <row r="5" spans="1:1025" ht="36">
       <c r="A5" s="78" t="s">
         <v>36</v>
       </c>
@@ -4204,7 +4343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="93.75">
+    <row r="6" spans="1:1025" ht="72">
       <c r="A6" s="78" t="s">
         <v>36</v>
       </c>
@@ -4223,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" ht="37.5">
+    <row r="7" spans="1:1025" ht="36">
       <c r="A7" s="78" t="s">
         <v>36</v>
       </c>
@@ -4242,7 +4381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="37.5">
+    <row r="8" spans="1:1025">
       <c r="A8" s="78" t="s">
         <v>36</v>
       </c>
@@ -4263,7 +4402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="56.25">
+    <row r="9" spans="1:1025" ht="36">
       <c r="A9" s="79" t="s">
         <v>44</v>
       </c>
@@ -4303,7 +4442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1025" ht="37.5">
+    <row r="11" spans="1:1025">
       <c r="A11" s="79" t="s">
         <v>44</v>
       </c>
@@ -4341,7 +4480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1025" ht="37.5">
+    <row r="13" spans="1:1025">
       <c r="A13" s="79" t="s">
         <v>44</v>
       </c>
@@ -4455,7 +4594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="37.5">
+    <row r="19" spans="1:7">
       <c r="A19" s="79" t="s">
         <v>44</v>
       </c>
@@ -4474,7 +4613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45">
+    <row r="20" spans="1:7" ht="28">
       <c r="A20" s="79" t="s">
         <v>44</v>
       </c>
@@ -4495,7 +4634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="56.25">
+    <row r="21" spans="1:7" ht="54">
       <c r="A21" s="80" t="s">
         <v>59</v>
       </c>
@@ -4554,7 +4693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="56.25">
+    <row r="24" spans="1:7" ht="36">
       <c r="A24" s="80" t="s">
         <v>59</v>
       </c>
@@ -4573,7 +4712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="37.5">
+    <row r="25" spans="1:7">
       <c r="A25" s="80" t="s">
         <v>59</v>
       </c>
@@ -4611,7 +4750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="37.5">
+    <row r="27" spans="1:7" ht="36">
       <c r="A27" s="80" t="s">
         <v>59</v>
       </c>
@@ -4670,7 +4809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="56.25">
+    <row r="30" spans="1:7" ht="36">
       <c r="A30" s="80" t="s">
         <v>59</v>
       </c>
@@ -4803,7 +4942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30">
+    <row r="37" spans="1:7" ht="28">
       <c r="A37" s="80" t="s">
         <v>59</v>
       </c>
@@ -4824,7 +4963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="56.25">
+    <row r="38" spans="1:7" ht="36">
       <c r="A38" s="81" t="s">
         <v>82</v>
       </c>
@@ -4864,7 +5003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="56.25">
+    <row r="40" spans="1:7" ht="54">
       <c r="A40" s="81" t="s">
         <v>82</v>
       </c>
@@ -4883,7 +5022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="37.5">
+    <row r="41" spans="1:7" ht="36">
       <c r="A41" s="81" t="s">
         <v>82</v>
       </c>
@@ -4902,7 +5041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="112.5">
+    <row r="42" spans="1:7" ht="90">
       <c r="A42" s="81" t="s">
         <v>82</v>
       </c>
@@ -4959,7 +5098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="37.5">
+    <row r="45" spans="1:7">
       <c r="A45" s="81" t="s">
         <v>82</v>
       </c>
@@ -4999,7 +5138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="56.25">
+    <row r="47" spans="1:7" ht="54">
       <c r="A47" s="78" t="s">
         <v>89</v>
       </c>
@@ -5058,7 +5197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="37.5">
+    <row r="50" spans="1:7">
       <c r="A50" s="78" t="s">
         <v>89</v>
       </c>
@@ -5305,7 +5444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="37.5">
+    <row r="63" spans="1:7">
       <c r="A63" s="78" t="s">
         <v>89</v>
       </c>
@@ -5324,7 +5463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="51">
+    <row r="64" spans="1:7" ht="42">
       <c r="A64" s="78" t="s">
         <v>89</v>
       </c>
@@ -5364,7 +5503,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="37.5">
+    <row r="66" spans="1:7" ht="36">
       <c r="A66" s="109" t="s">
         <v>420</v>
       </c>
@@ -5402,7 +5541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="75">
+    <row r="68" spans="1:7" ht="54">
       <c r="A68" s="79" t="s">
         <v>111</v>
       </c>
@@ -5423,7 +5562,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="56.25">
+    <row r="69" spans="1:7" ht="36">
       <c r="A69" s="79" t="s">
         <v>111</v>
       </c>
@@ -5442,7 +5581,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="93.75">
+    <row r="70" spans="1:7" ht="72">
       <c r="A70" s="79" t="s">
         <v>111</v>
       </c>
@@ -5461,7 +5600,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="37.5">
+    <row r="71" spans="1:7" ht="36">
       <c r="A71" s="79" t="s">
         <v>111</v>
       </c>
@@ -5480,7 +5619,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="56.25">
+    <row r="72" spans="1:7" ht="36">
       <c r="A72" s="79" t="s">
         <v>111</v>
       </c>
@@ -5499,7 +5638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="75">
+    <row r="73" spans="1:7" ht="72">
       <c r="A73" s="79" t="s">
         <v>111</v>
       </c>
@@ -5518,7 +5657,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="37.5">
+    <row r="74" spans="1:7" ht="36">
       <c r="A74" s="79" t="s">
         <v>111</v>
       </c>
@@ -5653,7 +5792,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="37.5">
+    <row r="81" spans="1:7">
       <c r="A81" s="79" t="s">
         <v>111</v>
       </c>
@@ -5674,7 +5813,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="37.5">
+    <row r="82" spans="1:7" ht="36">
       <c r="A82" s="79" t="s">
         <v>111</v>
       </c>
@@ -5693,7 +5832,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="56.25">
+    <row r="83" spans="1:7" ht="36">
       <c r="A83" s="79" t="s">
         <v>111</v>
       </c>
@@ -5712,7 +5851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="37.5">
+    <row r="84" spans="1:7">
       <c r="A84" s="79" t="s">
         <v>111</v>
       </c>
@@ -5864,7 +6003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="56.25">
+    <row r="92" spans="1:7" ht="54">
       <c r="A92" s="79" t="s">
         <v>111</v>
       </c>
@@ -6025,7 +6164,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="56.25">
+    <row r="101" spans="1:7" ht="54">
       <c r="A101" s="83" t="s">
         <v>148</v>
       </c>
@@ -6044,7 +6183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="37.5">
+    <row r="102" spans="1:7">
       <c r="A102" s="83" t="s">
         <v>148</v>
       </c>
@@ -6063,7 +6202,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="75">
+    <row r="103" spans="1:7" ht="54">
       <c r="A103" s="83" t="s">
         <v>148</v>
       </c>
@@ -6082,7 +6221,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="56.25">
+    <row r="104" spans="1:7" ht="54">
       <c r="A104" s="83" t="s">
         <v>148</v>
       </c>
@@ -6177,7 +6316,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="45">
+    <row r="109" spans="1:7" ht="48">
       <c r="A109" s="83" t="s">
         <v>148</v>
       </c>
@@ -6198,7 +6337,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="75">
+    <row r="110" spans="1:7" ht="54">
       <c r="A110" s="84" t="s">
         <v>156</v>
       </c>
@@ -6238,7 +6377,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="75">
+    <row r="112" spans="1:7" ht="72">
       <c r="A112" s="84" t="s">
         <v>156</v>
       </c>
@@ -6276,7 +6415,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="37.5">
+    <row r="114" spans="1:7">
       <c r="A114" s="84" t="s">
         <v>156</v>
       </c>
@@ -6504,7 +6643,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="37.5">
+    <row r="126" spans="1:7">
       <c r="A126" s="84" t="s">
         <v>156</v>
       </c>
@@ -6523,7 +6662,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="30">
+    <row r="127" spans="1:7" ht="28">
       <c r="A127" s="84" t="s">
         <v>156</v>
       </c>
@@ -6544,7 +6683,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="56.25">
+    <row r="128" spans="1:7" ht="54">
       <c r="A128" s="78" t="s">
         <v>167</v>
       </c>
@@ -6565,7 +6704,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="37.5">
+    <row r="129" spans="1:7" ht="36">
       <c r="A129" s="78" t="s">
         <v>167</v>
       </c>
@@ -6622,7 +6761,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="56.25">
+    <row r="132" spans="1:7" ht="36">
       <c r="A132" s="78" t="s">
         <v>167</v>
       </c>
@@ -6717,7 +6856,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="56.25">
+    <row r="137" spans="1:7" ht="36">
       <c r="A137" s="78" t="s">
         <v>167</v>
       </c>
@@ -6736,7 +6875,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="93.75">
+    <row r="138" spans="1:7" ht="72">
       <c r="A138" s="78" t="s">
         <v>167</v>
       </c>
@@ -6888,7 +7027,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="37.5">
+    <row r="146" spans="1:7">
       <c r="A146" s="78" t="s">
         <v>167</v>
       </c>
@@ -6907,7 +7046,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="45">
+    <row r="147" spans="1:7" ht="42">
       <c r="A147" s="78" t="s">
         <v>167</v>
       </c>
@@ -6928,7 +7067,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" ht="25">
       <c r="A148" s="85" t="s">
         <v>21</v>
       </c>
@@ -6949,7 +7088,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="38.25">
+    <row r="149" spans="1:7" ht="37">
       <c r="A149" s="85" t="s">
         <v>21</v>
       </c>
@@ -6968,7 +7107,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" ht="25">
       <c r="A150" s="85" t="s">
         <v>21</v>
       </c>
@@ -6987,7 +7126,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" ht="25">
       <c r="A151" s="85" t="s">
         <v>21</v>
       </c>
@@ -7006,7 +7145,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" ht="25">
       <c r="A152" s="85" t="s">
         <v>21</v>
       </c>
@@ -7025,7 +7164,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="75.75">
+    <row r="153" spans="1:7" ht="55">
       <c r="A153" s="85" t="s">
         <v>21</v>
       </c>
@@ -7044,7 +7183,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="38.25">
+    <row r="154" spans="1:7" ht="37">
       <c r="A154" s="85" t="s">
         <v>21</v>
       </c>
@@ -7063,7 +7202,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" ht="25">
       <c r="A155" s="85" t="s">
         <v>21</v>
       </c>
@@ -7082,7 +7221,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="57">
+    <row r="156" spans="1:7" ht="55">
       <c r="A156" s="85" t="s">
         <v>21</v>
       </c>
@@ -7101,7 +7240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" ht="25">
       <c r="A157" s="85" t="s">
         <v>21</v>
       </c>
@@ -7120,7 +7259,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" ht="25">
       <c r="A158" s="85" t="s">
         <v>21</v>
       </c>
@@ -7139,7 +7278,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="38.25">
+    <row r="159" spans="1:7" ht="25">
       <c r="A159" s="85" t="s">
         <v>21</v>
       </c>
@@ -7158,7 +7297,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" ht="25">
       <c r="A160" s="85" t="s">
         <v>21</v>
       </c>
@@ -7179,7 +7318,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" ht="25">
       <c r="A161" s="85" t="s">
         <v>21</v>
       </c>
@@ -7200,7 +7339,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" ht="25">
       <c r="A162" s="85" t="s">
         <v>21</v>
       </c>
@@ -7219,7 +7358,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="38.25">
+    <row r="163" spans="1:7" ht="25">
       <c r="A163" s="85" t="s">
         <v>21</v>
       </c>
@@ -7240,7 +7379,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="38.25">
+    <row r="164" spans="1:7" ht="37">
       <c r="A164" s="85" t="s">
         <v>21</v>
       </c>
@@ -7259,7 +7398,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="38.25">
+    <row r="165" spans="1:7" ht="37">
       <c r="A165" s="85" t="s">
         <v>21</v>
       </c>
@@ -7278,7 +7417,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="57">
+    <row r="166" spans="1:7" ht="37">
       <c r="A166" s="85" t="s">
         <v>21</v>
       </c>
@@ -7299,7 +7438,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" ht="25">
       <c r="A167" s="85" t="s">
         <v>21</v>
       </c>
@@ -7320,7 +7459,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" ht="25">
       <c r="A168" s="85" t="s">
         <v>21</v>
       </c>
@@ -7341,117 +7480,119 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="38.25">
+    <row r="169" spans="1:7" ht="25">
       <c r="A169" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B169" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C169" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E169" s="6"/>
+      <c r="B169" s="146" t="s">
+        <v>534</v>
+      </c>
+      <c r="C169" s="99" t="s">
+        <v>535</v>
+      </c>
+      <c r="D169" s="147" t="s">
+        <v>519</v>
+      </c>
+      <c r="E169" s="148" t="s">
+        <v>483</v>
+      </c>
       <c r="F169" s="5"/>
       <c r="G169" s="6">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="113.25">
+    <row r="170" spans="1:7" ht="37">
       <c r="A170" s="85" t="s">
         <v>21</v>
       </c>
       <c r="B170" s="67" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C170" s="92" t="s">
-        <v>472</v>
+        <v>34</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>442</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E170" s="6"/>
       <c r="F170" s="5"/>
       <c r="G170" s="6">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="86" t="s">
-        <v>348</v>
-      </c>
-      <c r="B171" s="71" t="s">
-        <v>7</v>
+    <row r="171" spans="1:7" ht="91">
+      <c r="A171" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" s="67" t="s">
+        <v>14</v>
       </c>
       <c r="C171" s="92" t="s">
-        <v>349</v>
+        <v>472</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="E171" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="F171" s="6"/>
+      <c r="E171" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F171" s="5"/>
       <c r="G171" s="6">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" ht="25">
       <c r="A172" s="86" t="s">
         <v>348</v>
       </c>
       <c r="B172" s="71" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C172" s="92" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="E172" s="17"/>
+      <c r="E172" s="17" t="s">
+        <v>450</v>
+      </c>
       <c r="F172" s="6"/>
       <c r="G172" s="6">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="38.25">
+    <row r="173" spans="1:7" ht="25">
       <c r="A173" s="86" t="s">
         <v>348</v>
       </c>
       <c r="B173" s="71" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C173" s="92" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="E173" s="6"/>
+      <c r="E173" s="17"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="38.25">
+    <row r="174" spans="1:7" ht="37">
       <c r="A174" s="86" t="s">
         <v>348</v>
       </c>
       <c r="B174" s="71" t="s">
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="C174" s="92" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -7459,55 +7600,53 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" ht="37">
       <c r="A175" s="86" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="67" t="s">
-        <v>371</v>
-      </c>
-      <c r="C175" s="100" t="s">
-        <v>372</v>
+      <c r="B175" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175" s="92" t="s">
+        <v>373</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="E175" s="4"/>
-      <c r="F175" s="5"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
       <c r="G175" s="6">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" ht="25">
       <c r="A176" s="86" t="s">
         <v>348</v>
       </c>
-      <c r="B176" s="71" t="s">
-        <v>484</v>
-      </c>
-      <c r="C176" s="92" t="s">
-        <v>351</v>
+      <c r="B176" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="C176" s="100" t="s">
+        <v>372</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E176" s="4"/>
+      <c r="F176" s="5"/>
       <c r="G176" s="6">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" ht="25">
       <c r="A177" s="86" t="s">
         <v>348</v>
       </c>
       <c r="B177" s="71" t="s">
-        <v>16</v>
+        <v>484</v>
       </c>
       <c r="C177" s="92" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>439</v>
@@ -7520,22 +7659,20 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="76.5">
+    <row r="178" spans="1:7" ht="25">
       <c r="A178" s="86" t="s">
         <v>348</v>
       </c>
       <c r="B178" s="71" t="s">
-        <v>361</v>
+        <v>16</v>
       </c>
       <c r="C178" s="92" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="E178" s="15" t="s">
-        <v>485</v>
-      </c>
+      <c r="E178" s="6"/>
       <c r="F178" s="6" t="s">
         <v>31</v>
       </c>
@@ -7543,20 +7680,22 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="87" t="s">
-        <v>363</v>
-      </c>
-      <c r="B179" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C179" s="102" t="s">
-        <v>366</v>
-      </c>
-      <c r="D179" s="126" t="s">
-        <v>439</v>
-      </c>
-      <c r="E179" s="6"/>
+    <row r="179" spans="1:7" ht="58">
+      <c r="A179" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="B179" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="C179" s="92" t="s">
+        <v>362</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E179" s="15" t="s">
+        <v>485</v>
+      </c>
       <c r="F179" s="6" t="s">
         <v>31</v>
       </c>
@@ -7564,15 +7703,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" ht="25">
       <c r="A180" s="87" t="s">
         <v>363</v>
       </c>
-      <c r="B180" s="73" t="s">
-        <v>484</v>
+      <c r="B180" s="72" t="s">
+        <v>16</v>
       </c>
       <c r="C180" s="102" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D180" s="126" t="s">
         <v>439</v>
@@ -7585,76 +7724,76 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="38.25">
+    <row r="181" spans="1:7" ht="25">
       <c r="A181" s="87" t="s">
         <v>363</v>
       </c>
-      <c r="B181" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C181" s="92" t="s">
-        <v>367</v>
+      <c r="B181" s="73" t="s">
+        <v>484</v>
+      </c>
+      <c r="C181" s="102" t="s">
+        <v>364</v>
       </c>
       <c r="D181" s="126" t="s">
         <v>439</v>
       </c>
       <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
+      <c r="F181" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G181" s="6">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="46.5">
+    <row r="182" spans="1:7" ht="37">
       <c r="A182" s="87" t="s">
         <v>363</v>
       </c>
       <c r="B182" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="C182" s="102" t="s">
-        <v>368</v>
+        <v>17</v>
+      </c>
+      <c r="C182" s="92" t="s">
+        <v>367</v>
       </c>
       <c r="D182" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="E182" s="15" t="s">
-        <v>487</v>
-      </c>
+      <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="88" t="s">
-        <v>385</v>
-      </c>
-      <c r="B183" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C183" s="103" t="s">
-        <v>366</v>
-      </c>
-      <c r="D183" s="127" t="s">
-        <v>439</v>
-      </c>
-      <c r="E183" s="53"/>
-      <c r="F183" s="53" t="s">
-        <v>31</v>
-      </c>
+    <row r="183" spans="1:7" ht="44">
+      <c r="A183" s="87" t="s">
+        <v>363</v>
+      </c>
+      <c r="B183" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="C183" s="102" t="s">
+        <v>368</v>
+      </c>
+      <c r="D183" s="126" t="s">
+        <v>439</v>
+      </c>
+      <c r="E183" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="F183" s="6"/>
       <c r="G183" s="6">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" ht="25">
       <c r="A184" s="88" t="s">
         <v>385</v>
       </c>
-      <c r="B184" s="75" t="s">
-        <v>484</v>
+      <c r="B184" s="74" t="s">
+        <v>16</v>
       </c>
       <c r="C184" s="103" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D184" s="127" t="s">
         <v>439</v>
@@ -7667,37 +7806,39 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="38.25">
+    <row r="185" spans="1:7" ht="25">
       <c r="A185" s="88" t="s">
         <v>385</v>
       </c>
-      <c r="B185" s="74" t="s">
-        <v>17</v>
+      <c r="B185" s="75" t="s">
+        <v>484</v>
       </c>
       <c r="C185" s="103" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D185" s="127" t="s">
         <v>439</v>
       </c>
       <c r="E185" s="53"/>
-      <c r="F185" s="53"/>
+      <c r="F185" s="53" t="s">
+        <v>31</v>
+      </c>
       <c r="G185" s="6">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" ht="37">
       <c r="A186" s="88" t="s">
         <v>385</v>
       </c>
       <c r="B186" s="74" t="s">
-        <v>350</v>
+        <v>17</v>
       </c>
       <c r="C186" s="103" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="D186" s="127" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E186" s="53"/>
       <c r="F186" s="53"/>
@@ -7705,119 +7846,119 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="46.5">
+    <row r="187" spans="1:7" ht="25">
       <c r="A187" s="88" t="s">
         <v>385</v>
       </c>
       <c r="B187" s="74" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C187" s="103" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="D187" s="127" t="s">
-        <v>439</v>
-      </c>
-      <c r="E187" s="54" t="s">
-        <v>486</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E187" s="53"/>
       <c r="F187" s="53"/>
       <c r="G187" s="6">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B188" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C188" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="D188" s="128" t="s">
-        <v>439</v>
-      </c>
-      <c r="E188" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="F188" s="6"/>
+    <row r="188" spans="1:7" ht="44">
+      <c r="A188" s="88" t="s">
+        <v>385</v>
+      </c>
+      <c r="B188" s="74" t="s">
+        <v>365</v>
+      </c>
+      <c r="C188" s="103" t="s">
+        <v>386</v>
+      </c>
+      <c r="D188" s="127" t="s">
+        <v>439</v>
+      </c>
+      <c r="E188" s="54" t="s">
+        <v>486</v>
+      </c>
+      <c r="F188" s="53"/>
       <c r="G188" s="6">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" ht="25">
       <c r="A189" s="89" t="s">
         <v>369</v>
       </c>
       <c r="B189" s="76" t="s">
-        <v>374</v>
-      </c>
-      <c r="C189" s="92" t="s">
-        <v>383</v>
-      </c>
-      <c r="D189" s="129" t="s">
-        <v>438</v>
-      </c>
-      <c r="E189" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C189" s="104" t="s">
+        <v>384</v>
+      </c>
+      <c r="D189" s="128" t="s">
+        <v>439</v>
+      </c>
+      <c r="E189" s="17" t="s">
+        <v>450</v>
+      </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" ht="25">
       <c r="A190" s="89" t="s">
         <v>369</v>
       </c>
       <c r="B190" s="76" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C190" s="92" t="s">
-        <v>375</v>
-      </c>
-      <c r="D190" s="128" t="s">
+        <v>383</v>
+      </c>
+      <c r="D190" s="129" t="s">
         <v>438</v>
       </c>
       <c r="E190" s="6"/>
-      <c r="F190" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="F190" s="6"/>
       <c r="G190" s="6">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" ht="25">
       <c r="A191" s="89" t="s">
         <v>369</v>
       </c>
       <c r="B191" s="76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C191" s="92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D191" s="128" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
+      <c r="F191" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G191" s="6">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="38.25">
+    <row r="192" spans="1:7" ht="25">
       <c r="A192" s="89" t="s">
         <v>369</v>
       </c>
       <c r="B192" s="76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C192" s="92" t="s">
-        <v>381</v>
-      </c>
-      <c r="D192" s="129" t="s">
-        <v>438</v>
+        <v>376</v>
+      </c>
+      <c r="D192" s="128" t="s">
+        <v>439</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
@@ -7825,15 +7966,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="38.25">
+    <row r="193" spans="1:7" ht="37">
       <c r="A193" s="89" t="s">
         <v>369</v>
       </c>
       <c r="B193" s="76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C193" s="92" t="s">
-        <v>492</v>
+        <v>381</v>
       </c>
       <c r="D193" s="129" t="s">
         <v>438</v>
@@ -7844,18 +7985,18 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="38.25">
+    <row r="194" spans="1:7" ht="37">
       <c r="A194" s="89" t="s">
         <v>369</v>
       </c>
-      <c r="B194" s="72" t="s">
-        <v>17</v>
+      <c r="B194" s="76" t="s">
+        <v>380</v>
       </c>
       <c r="C194" s="92" t="s">
-        <v>367</v>
-      </c>
-      <c r="D194" s="126" t="s">
-        <v>439</v>
+        <v>492</v>
+      </c>
+      <c r="D194" s="129" t="s">
+        <v>438</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -7863,78 +8004,78 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="31.5">
+    <row r="195" spans="1:7" ht="37">
       <c r="A195" s="89" t="s">
         <v>369</v>
       </c>
-      <c r="B195" s="71" t="s">
-        <v>16</v>
+      <c r="B195" s="72" t="s">
+        <v>17</v>
       </c>
       <c r="C195" s="92" t="s">
-        <v>382</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E195" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="D195" s="126" t="s">
+        <v>439</v>
+      </c>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
       <c r="G195" s="6">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="88" t="s">
-        <v>391</v>
-      </c>
-      <c r="B196" s="76" t="s">
-        <v>7</v>
+    <row r="196" spans="1:7" ht="30">
+      <c r="A196" s="89" t="s">
+        <v>369</v>
+      </c>
+      <c r="B196" s="71" t="s">
+        <v>16</v>
       </c>
       <c r="C196" s="92" t="s">
-        <v>392</v>
-      </c>
-      <c r="D196" s="130" t="s">
-        <v>439</v>
-      </c>
-      <c r="E196" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="F196" s="6"/>
+        <v>382</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E196" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G196" s="6">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="38.25">
+    <row r="197" spans="1:7" ht="25">
       <c r="A197" s="88" t="s">
         <v>391</v>
       </c>
       <c r="B197" s="76" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C197" s="92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D197" s="130" t="s">
         <v>439</v>
       </c>
-      <c r="E197" s="6"/>
+      <c r="E197" s="17" t="s">
+        <v>450</v>
+      </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" ht="37">
       <c r="A198" s="88" t="s">
         <v>391</v>
       </c>
-      <c r="B198" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="C198" s="103" t="s">
-        <v>400</v>
+      <c r="B198" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="92" t="s">
+        <v>393</v>
       </c>
       <c r="D198" s="130" t="s">
         <v>439</v>
@@ -7945,18 +8086,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" ht="25">
       <c r="A199" s="88" t="s">
         <v>391</v>
       </c>
-      <c r="B199" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C199" s="92" t="s">
-        <v>394</v>
+      <c r="B199" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C199" s="103" t="s">
+        <v>400</v>
       </c>
       <c r="D199" s="130" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -7964,18 +8105,18 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" ht="25">
       <c r="A200" s="88" t="s">
         <v>391</v>
       </c>
       <c r="B200" s="76" t="s">
-        <v>395</v>
+        <v>48</v>
       </c>
       <c r="C200" s="92" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D200" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -7983,18 +8124,18 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="38.25">
+    <row r="201" spans="1:7" ht="25">
       <c r="A201" s="88" t="s">
         <v>391</v>
       </c>
       <c r="B201" s="76" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C201" s="92" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D201" s="130" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -8002,34 +8143,34 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" ht="37">
       <c r="A202" s="88" t="s">
         <v>391</v>
       </c>
-      <c r="B202" s="70" t="s">
-        <v>493</v>
+      <c r="B202" s="76" t="s">
+        <v>397</v>
       </c>
       <c r="C202" s="92" t="s">
-        <v>495</v>
+        <v>398</v>
       </c>
       <c r="D202" s="130" t="s">
         <v>438</v>
       </c>
-      <c r="E202" s="1"/>
+      <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" ht="25">
       <c r="A203" s="88" t="s">
         <v>391</v>
       </c>
       <c r="B203" s="70" t="s">
-        <v>131</v>
+        <v>493</v>
       </c>
       <c r="C203" s="92" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D203" s="130" t="s">
         <v>438</v>
@@ -8040,78 +8181,76 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" ht="25">
       <c r="A204" s="88" t="s">
         <v>391</v>
       </c>
-      <c r="B204" s="76" t="s">
-        <v>2</v>
+      <c r="B204" s="70" t="s">
+        <v>131</v>
       </c>
       <c r="C204" s="92" t="s">
-        <v>399</v>
+        <v>494</v>
       </c>
       <c r="D204" s="130" t="s">
         <v>438</v>
       </c>
+      <c r="E204" s="1"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" ht="25">
       <c r="A205" s="88" t="s">
         <v>391</v>
       </c>
       <c r="B205" s="76" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C205" s="92" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="D205" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="31.5">
-      <c r="A206" s="137" t="s">
+    <row r="206" spans="1:7" ht="25">
+      <c r="A206" s="88" t="s">
         <v>391</v>
       </c>
-      <c r="B206" s="133" t="s">
-        <v>14</v>
-      </c>
-      <c r="C206" s="134" t="s">
-        <v>453</v>
-      </c>
-      <c r="D206" s="135" t="s">
-        <v>439</v>
-      </c>
-      <c r="E206" s="136" t="s">
-        <v>443</v>
+      <c r="B206" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="92" t="s">
+        <v>454</v>
+      </c>
+      <c r="D206" s="130" t="s">
+        <v>439</v>
       </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="108" t="s">
-        <v>414</v>
-      </c>
-      <c r="B207" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" s="92" t="s">
-        <v>415</v>
-      </c>
-      <c r="D207" s="130" t="s">
-        <v>439</v>
-      </c>
-      <c r="E207" s="17" t="s">
-        <v>450</v>
+    <row r="207" spans="1:7" ht="30">
+      <c r="A207" s="137" t="s">
+        <v>391</v>
+      </c>
+      <c r="B207" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="134" t="s">
+        <v>453</v>
+      </c>
+      <c r="D207" s="135" t="s">
+        <v>439</v>
+      </c>
+      <c r="E207" s="136" t="s">
+        <v>443</v>
       </c>
       <c r="F207" s="6"/>
       <c r="G207" s="6">
@@ -8122,15 +8261,19 @@
       <c r="A208" s="108" t="s">
         <v>414</v>
       </c>
-      <c r="B208" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="C208" s="103" t="s">
-        <v>418</v>
+      <c r="B208" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="92" t="s">
+        <v>415</v>
       </c>
       <c r="D208" s="130" t="s">
         <v>439</v>
       </c>
+      <c r="E208" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="F208" s="6"/>
       <c r="G208" s="6">
         <v>207</v>
       </c>
@@ -8139,17 +8282,15 @@
       <c r="A209" s="108" t="s">
         <v>414</v>
       </c>
-      <c r="B209" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C209" s="92" t="s">
-        <v>416</v>
+      <c r="B209" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C209" s="103" t="s">
+        <v>418</v>
       </c>
       <c r="D209" s="130" t="s">
-        <v>438</v>
-      </c>
-      <c r="E209" s="6"/>
-      <c r="F209" s="6"/>
+        <v>439</v>
+      </c>
       <c r="G209" s="6">
         <v>208</v>
       </c>
@@ -8159,10 +8300,10 @@
         <v>414</v>
       </c>
       <c r="B210" s="67" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C210" s="92" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D210" s="130" t="s">
         <v>438</v>
@@ -8178,13 +8319,13 @@
         <v>414</v>
       </c>
       <c r="B211" s="67" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C211" s="92" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="D211" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
@@ -8197,10 +8338,10 @@
         <v>414</v>
       </c>
       <c r="B212" s="67" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C212" s="92" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D212" s="130" t="s">
         <v>439</v>
@@ -8212,21 +8353,19 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="107" t="s">
-        <v>408</v>
+      <c r="A213" s="108" t="s">
+        <v>414</v>
       </c>
       <c r="B213" s="67" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C213" s="92" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="D213" s="130" t="s">
         <v>439</v>
       </c>
-      <c r="E213" s="17" t="s">
-        <v>450</v>
-      </c>
+      <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6">
         <v>212</v>
@@ -8236,30 +8375,32 @@
       <c r="A214" s="107" t="s">
         <v>408</v>
       </c>
-      <c r="B214" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="C214" s="103" t="s">
-        <v>419</v>
+      <c r="B214" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="92" t="s">
+        <v>409</v>
       </c>
       <c r="D214" s="130" t="s">
         <v>439</v>
       </c>
-      <c r="E214" s="6"/>
+      <c r="E214" s="17" t="s">
+        <v>450</v>
+      </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="94.5">
+    <row r="215" spans="1:7">
       <c r="A215" s="107" t="s">
         <v>408</v>
       </c>
-      <c r="B215" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="C215" s="92" t="s">
-        <v>413</v>
+      <c r="B215" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C215" s="103" t="s">
+        <v>419</v>
       </c>
       <c r="D215" s="130" t="s">
         <v>439</v>
@@ -8270,18 +8411,18 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" ht="91">
       <c r="A216" s="107" t="s">
         <v>408</v>
       </c>
       <c r="B216" s="67" t="s">
-        <v>48</v>
+        <v>410</v>
       </c>
       <c r="C216" s="92" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D216" s="130" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
@@ -8293,14 +8434,14 @@
       <c r="A217" s="107" t="s">
         <v>408</v>
       </c>
-      <c r="B217" s="76" t="s">
-        <v>395</v>
+      <c r="B217" s="67" t="s">
+        <v>48</v>
       </c>
       <c r="C217" s="92" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D217" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
@@ -8312,16 +8453,16 @@
       <c r="A218" s="107" t="s">
         <v>408</v>
       </c>
-      <c r="B218" s="70" t="s">
-        <v>493</v>
+      <c r="B218" s="76" t="s">
+        <v>395</v>
       </c>
       <c r="C218" s="92" t="s">
-        <v>495</v>
+        <v>396</v>
       </c>
       <c r="D218" s="130" t="s">
-        <v>438</v>
-      </c>
-      <c r="E218" s="1"/>
+        <v>439</v>
+      </c>
+      <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6">
         <v>217</v>
@@ -8332,10 +8473,10 @@
         <v>408</v>
       </c>
       <c r="B219" s="70" t="s">
-        <v>131</v>
+        <v>493</v>
       </c>
       <c r="C219" s="92" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D219" s="130" t="s">
         <v>438</v>
@@ -8346,19 +8487,20 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="36" customHeight="1">
+    <row r="220" spans="1:7">
       <c r="A220" s="107" t="s">
         <v>408</v>
       </c>
-      <c r="B220" s="67" t="s">
-        <v>2</v>
+      <c r="B220" s="70" t="s">
+        <v>131</v>
       </c>
       <c r="C220" s="92" t="s">
-        <v>412</v>
+        <v>494</v>
       </c>
       <c r="D220" s="130" t="s">
         <v>438</v>
       </c>
+      <c r="E220" s="1"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6">
         <v>219</v>
@@ -8369,42 +8511,406 @@
         <v>408</v>
       </c>
       <c r="B221" s="67" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C221" s="92" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="D221" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="6">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="54.95" customHeight="1">
-      <c r="A222" s="132" t="s">
+    <row r="222" spans="1:7" ht="36" customHeight="1">
+      <c r="A222" s="107" t="s">
         <v>408</v>
       </c>
-      <c r="B222" s="133" t="s">
-        <v>14</v>
-      </c>
-      <c r="C222" s="134" t="s">
-        <v>453</v>
-      </c>
-      <c r="D222" s="135" t="s">
-        <v>439</v>
-      </c>
-      <c r="E222" s="136" t="s">
-        <v>471</v>
+      <c r="B222" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" s="92" t="s">
+        <v>454</v>
+      </c>
+      <c r="D222" s="130" t="s">
+        <v>439</v>
       </c>
       <c r="F222" s="6"/>
       <c r="G222" s="6">
         <v>221</v>
       </c>
     </row>
+    <row r="223" spans="1:7" ht="55" customHeight="1">
+      <c r="A223" s="132" t="s">
+        <v>408</v>
+      </c>
+      <c r="B223" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="134" t="s">
+        <v>504</v>
+      </c>
+      <c r="D223" s="135" t="s">
+        <v>439</v>
+      </c>
+      <c r="E223" s="136" t="s">
+        <v>471</v>
+      </c>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="B224" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="99" t="s">
+        <v>510</v>
+      </c>
+      <c r="D224" s="141" t="s">
+        <v>439</v>
+      </c>
+      <c r="E224" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="B225" s="146" t="s">
+        <v>529</v>
+      </c>
+      <c r="C225" s="99" t="s">
+        <v>511</v>
+      </c>
+      <c r="D225" s="141" t="s">
+        <v>438</v>
+      </c>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="B226" s="146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="99" t="s">
+        <v>512</v>
+      </c>
+      <c r="D226" s="141" t="s">
+        <v>438</v>
+      </c>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="B227" s="146" t="s">
+        <v>515</v>
+      </c>
+      <c r="C227" s="99" t="s">
+        <v>517</v>
+      </c>
+      <c r="D227" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="B228" s="146" t="s">
+        <v>516</v>
+      </c>
+      <c r="C228" s="99" t="s">
+        <v>518</v>
+      </c>
+      <c r="D228" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="B229" s="146" t="s">
+        <v>520</v>
+      </c>
+      <c r="C229" s="99" t="s">
+        <v>521</v>
+      </c>
+      <c r="D229" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="B230" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C230" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D230" s="141" t="s">
+        <v>439</v>
+      </c>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="B231" s="146" t="s">
+        <v>109</v>
+      </c>
+      <c r="C231" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="D231" s="141" t="s">
+        <v>439</v>
+      </c>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="B232" s="146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C232" s="99" t="s">
+        <v>513</v>
+      </c>
+      <c r="D232" s="141" t="s">
+        <v>439</v>
+      </c>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="B233" s="142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D233" s="141" t="s">
+        <v>439</v>
+      </c>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="B234" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="D234" s="141" t="s">
+        <v>439</v>
+      </c>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="107" t="s">
+        <v>508</v>
+      </c>
+      <c r="B235" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="C235" s="92" t="s">
+        <v>523</v>
+      </c>
+      <c r="D235" s="130" t="s">
+        <v>439</v>
+      </c>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="107" t="s">
+        <v>508</v>
+      </c>
+      <c r="B236" s="67" t="s">
+        <v>514</v>
+      </c>
+      <c r="C236" s="92" t="s">
+        <v>524</v>
+      </c>
+      <c r="D236" s="130" t="s">
+        <v>439</v>
+      </c>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="107" t="s">
+        <v>508</v>
+      </c>
+      <c r="B237" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C237" s="92" t="s">
+        <v>525</v>
+      </c>
+      <c r="D237" s="130" t="s">
+        <v>439</v>
+      </c>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="107" t="s">
+        <v>508</v>
+      </c>
+      <c r="B238" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="C238" s="92" t="s">
+        <v>526</v>
+      </c>
+      <c r="D238" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="107" t="s">
+        <v>508</v>
+      </c>
+      <c r="B239" s="67" t="s">
+        <v>520</v>
+      </c>
+      <c r="C239" s="92" t="s">
+        <v>527</v>
+      </c>
+      <c r="D239" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="107" t="s">
+        <v>508</v>
+      </c>
+      <c r="B240" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C240" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D240" s="141" t="s">
+        <v>439</v>
+      </c>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="58">
+      <c r="A241" s="107" t="s">
+        <v>508</v>
+      </c>
+      <c r="B241" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C241" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="D241" s="141" t="s">
+        <v>439</v>
+      </c>
+      <c r="E241" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G222" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G223"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
@@ -8416,20 +8922,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18">
       <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
@@ -8517,42 +9023,42 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -8637,39 +9143,39 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75">
+    <row r="1" spans="1:21" ht="18">
       <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
@@ -8746,26 +9252,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="76" t="s">
         <v>7</v>
       </c>
@@ -8998,24 +9504,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
@@ -9033,6 +9539,50 @@
       </c>
       <c r="F1" s="138" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -9047,28 +9597,28 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
@@ -9107,7 +9657,9 @@
       <c r="B2" s="6">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
       <c r="D2" s="6" t="s">
         <v>459</v>
       </c>
@@ -9129,7 +9681,9 @@
       <c r="B3" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>461</v>
       </c>
@@ -9153,7 +9707,9 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>462</v>
       </c>
@@ -9175,7 +9731,9 @@
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
       <c r="D5" s="6" t="s">
         <v>463</v>
       </c>
@@ -9197,7 +9755,9 @@
       <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>464</v>
       </c>
@@ -9214,12 +9774,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>470</v>
       </c>
@@ -9230,9 +9792,138 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6">
-        <v>5</v>
+        <v>999</v>
       </c>
       <c r="J7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18">
+      <c r="A1" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="146" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="146" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="146" t="s">
+        <v>516</v>
+      </c>
+      <c r="F1" s="146" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="146" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="146" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="142" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9246,30 +9937,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -9318,16 +10009,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -9391,27 +10082,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -10137,7 +10828,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30">
+    <row r="43" spans="1:5">
       <c r="A43" s="52">
         <v>42</v>
       </c>
@@ -10154,7 +10845,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30">
+    <row r="44" spans="1:5">
       <c r="A44" s="52">
         <v>43</v>
       </c>
@@ -10336,26 +11027,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
@@ -10392,27 +11083,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
@@ -10452,36 +11143,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75">
+    <row r="1" spans="1:18" ht="18">
       <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
@@ -10577,36 +11268,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75">
+    <row r="1" spans="1:18" ht="18">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -10673,22 +11364,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75">
+    <row r="1" spans="1:20" ht="18">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
